--- a/src/test/java/day12_webTables_excelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/day12_webTables_excelOtomasyon/ulkeler.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE3C725-E780-4809-BE3F-A034C6B07B78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F14FFA-C3E0-47CF-9DFB-E82C38673355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2880" windowWidth="24000" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -2168,7 +2168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -4859,14 +4859,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/day12_webTables_excelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/day12_webTables_excelOtomasyon/ulkeler.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1740,12 +1740,25 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>54000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2166,7 +2179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -2174,7 +2187,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2190,6 +2203,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>573</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2204,6 +2220,9 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s" s="0">
+        <v>574</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2316,6 +2335,9 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E10" t="s" s="0">
+        <v>575</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -2385,6 +2407,9 @@
       </c>
       <c r="D15" s="7" t="s">
         <v>49</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4868,43 +4893,43 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8">
+      <c r="E8" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9">
+      <c r="C9" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="B12" s="0">
         <v>3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16">
+      <c r="C16" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20">
+      <c r="D20" s="0">
         <v>8</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>9</v>
       </c>
     </row>
